--- a/src/lib/external-participant.xlsx
+++ b/src/lib/external-participant.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E875F5B7-C4C7-4662-B5FD-3956A9B9D45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="External Participants" state="visible" r:id="rId4"/>
+    <sheet name="External Participants" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="372">
   <si>
     <t>Name</t>
   </si>
@@ -406,6 +410,15 @@
     <t>936 127 0958</t>
   </si>
   <si>
+    <t>Harishankar</t>
+  </si>
+  <si>
+    <t>suthahari@gmail.com</t>
+  </si>
+  <si>
+    <t>8015951231</t>
+  </si>
+  <si>
     <t>SANTHIYA K J</t>
   </si>
   <si>
@@ -502,6 +515,9 @@
     <t>9342324610</t>
   </si>
   <si>
+    <t>Vignesh, Arul balaji, Madhumita , Gokul raj</t>
+  </si>
+  <si>
     <t>K.Sujitha</t>
   </si>
   <si>
@@ -880,6 +896,9 @@
     <t>9841958457</t>
   </si>
   <si>
+    <t>Mohammed Habib S, Lankesh M, Ragul C</t>
+  </si>
+  <si>
     <t>RENIL IMMANUEL C</t>
   </si>
   <si>
@@ -950,6 +969,9 @@
   </si>
   <si>
     <t>8248620734</t>
+  </si>
+  <si>
+    <t>Pasala Sathvika , Nulin Jeriba J, Mukilan B, Priyanka P</t>
   </si>
   <si>
     <t>Manasesh K S A</t>
@@ -1114,14 +1136,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1484,9 +1506,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K63"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -1501,7 +1526,7 @@
     <col min="11" max="11" width="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1536,7 +1561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1571,7 +1596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1606,7 +1631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1641,7 +1666,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1676,7 +1701,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1711,7 +1736,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1746,7 +1771,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -1781,7 +1806,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1816,7 +1841,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1851,7 +1876,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -1886,7 +1911,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -1921,7 +1946,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -1956,7 +1981,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -1991,7 +2016,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -2026,7 +2051,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -2061,7 +2086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -2096,7 +2121,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>126</v>
       </c>
@@ -2131,263 +2156,263 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>131</v>
       </c>
       <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" t="s">
         <v>91</v>
       </c>
-      <c r="E19" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" t="s">
-        <v>135</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="E20" t="s">
         <v>136</v>
       </c>
-      <c r="I19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19">
-        <v>5</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="F20" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="G20" t="s">
         <v>138</v>
       </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="H20" t="s">
         <v>139</v>
       </c>
-      <c r="D20" t="s">
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20" t="s">
         <v>140</v>
       </c>
-      <c r="E20" t="s">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>141</v>
       </c>
-      <c r="F20" t="s">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
         <v>142</v>
       </c>
-      <c r="G20" t="s">
+      <c r="D21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" t="s">
         <v>35</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>36</v>
       </c>
-      <c r="I20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20">
-        <v>5</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>146</v>
       </c>
-      <c r="F21" t="s">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
         <v>147</v>
       </c>
-      <c r="G21" t="s">
-        <v>135</v>
-      </c>
-      <c r="H21" t="s">
-        <v>136</v>
-      </c>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21">
-        <v>5</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="D22" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="E22" t="s">
         <v>149</v>
       </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>150</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" t="s">
+        <v>139</v>
+      </c>
+      <c r="I22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22" t="s">
         <v>151</v>
       </c>
-      <c r="G22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22">
-        <v>5</v>
-      </c>
-      <c r="K22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>152</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
         <v>153</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>154</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>155</v>
       </c>
-      <c r="F23" t="s">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
         <v>156</v>
       </c>
-      <c r="G23" t="s">
+      <c r="D24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" t="s">
         <v>123</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H24" t="s">
         <v>124</v>
       </c>
-      <c r="I23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23">
-        <v>5</v>
-      </c>
-      <c r="K23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="I24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24" t="s">
         <v>160</v>
       </c>
-      <c r="E24" t="s">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>161</v>
       </c>
-      <c r="F24" t="s">
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
         <v>162</v>
       </c>
-      <c r="G24" t="s">
+      <c r="D25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" t="s">
         <v>26</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H25" t="s">
         <v>27</v>
       </c>
-      <c r="I24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24">
-        <v>5</v>
-      </c>
-      <c r="K24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>164</v>
-      </c>
-      <c r="D25" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="I25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25" t="s">
         <v>166</v>
       </c>
-      <c r="F25" t="s">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>167</v>
-      </c>
-      <c r="G25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" t="s">
-        <v>44</v>
-      </c>
-      <c r="I25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25">
-        <v>5</v>
-      </c>
-      <c r="K25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>168</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" t="s">
         <v>169</v>
-      </c>
-      <c r="D26" t="s">
-        <v>53</v>
       </c>
       <c r="E26" t="s">
         <v>170</v>
@@ -2396,74 +2421,74 @@
         <v>171</v>
       </c>
       <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>172</v>
       </c>
-      <c r="H26" t="s">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
         <v>173</v>
       </c>
-      <c r="I26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26">
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" t="s">
+        <v>176</v>
+      </c>
+      <c r="H27" t="s">
+        <v>177</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27">
         <v>4</v>
       </c>
-      <c r="K26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>175</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" t="s">
-        <v>177</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="K27" t="s">
         <v>178</v>
       </c>
-      <c r="F27" t="s">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>179</v>
       </c>
-      <c r="G27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27">
-        <v>5</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D28" t="s">
         <v>181</v>
       </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>182</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>183</v>
-      </c>
-      <c r="E28" t="s">
-        <v>184</v>
-      </c>
-      <c r="F28" t="s">
-        <v>185</v>
       </c>
       <c r="G28" t="s">
         <v>50</v>
@@ -2478,123 +2503,123 @@
         <v>5</v>
       </c>
       <c r="K28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D29" t="s">
         <v>187</v>
       </c>
-      <c r="B29" t="s">
+      <c r="E29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="C29" t="s">
-        <v>188</v>
-      </c>
-      <c r="D29" t="s">
-        <v>189</v>
-      </c>
-      <c r="E29" t="s">
-        <v>190</v>
-      </c>
-      <c r="F29" t="s">
-        <v>191</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="C30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" t="s">
         <v>26</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>27</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I30" t="s">
         <v>61</v>
       </c>
-      <c r="J29">
+      <c r="J30">
         <v>3</v>
       </c>
-      <c r="K29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>193</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>194</v>
-      </c>
-      <c r="D30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" t="s">
-        <v>195</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="K30" t="s">
         <v>196</v>
       </c>
-      <c r="G30" t="s">
-        <v>100</v>
-      </c>
-      <c r="H30" t="s">
-        <v>101</v>
-      </c>
-      <c r="I30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30">
-        <v>5</v>
-      </c>
-      <c r="K30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>197</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
         <v>198</v>
       </c>
       <c r="D31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" t="s">
         <v>199</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>200</v>
       </c>
-      <c r="F31" t="s">
-        <v>201</v>
-      </c>
       <c r="G31" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="H31" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="I31" t="s">
         <v>19</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="D32" t="s">
         <v>203</v>
@@ -2606,22 +2631,22 @@
         <v>205</v>
       </c>
       <c r="G32" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s">
         <v>19</v>
       </c>
       <c r="J32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>206</v>
       </c>
@@ -2629,296 +2654,296 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" t="s">
         <v>207</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>208</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>209</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="K33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>210</v>
       </c>
-      <c r="G33" t="s">
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" t="s">
         <v>67</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H34" t="s">
         <v>68</v>
       </c>
-      <c r="I33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33">
-        <v>5</v>
-      </c>
-      <c r="K33" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>212</v>
-      </c>
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" t="s">
-        <v>213</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="I34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" t="s">
         <v>78</v>
       </c>
-      <c r="E34" t="s">
-        <v>214</v>
-      </c>
-      <c r="F34" t="s">
-        <v>215</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="E35" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" t="s">
+        <v>219</v>
+      </c>
+      <c r="G35" t="s">
         <v>50</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H35" t="s">
         <v>37</v>
       </c>
-      <c r="I34" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34">
+      <c r="I35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35">
         <v>3</v>
       </c>
-      <c r="K34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>217</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" t="s">
-        <v>218</v>
-      </c>
-      <c r="D35" t="s">
-        <v>219</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="K35" t="s">
         <v>220</v>
       </c>
-      <c r="F35" t="s">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>221</v>
       </c>
-      <c r="G35" t="s">
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36" t="s">
+        <v>224</v>
+      </c>
+      <c r="F36" t="s">
+        <v>225</v>
+      </c>
+      <c r="G36" t="s">
         <v>43</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H36" t="s">
         <v>44</v>
       </c>
-      <c r="I35" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35">
-        <v>5</v>
-      </c>
-      <c r="K35" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>223</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
-        <v>224</v>
-      </c>
-      <c r="D36" t="s">
-        <v>225</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="I36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36" t="s">
         <v>226</v>
       </c>
-      <c r="F36" t="s">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>227</v>
       </c>
-      <c r="G36" t="s">
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
         <v>228</v>
       </c>
-      <c r="H36" t="s">
+      <c r="D37" t="s">
         <v>229</v>
       </c>
-      <c r="I36" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36">
+      <c r="E37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F37" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" t="s">
+        <v>232</v>
+      </c>
+      <c r="H37" t="s">
+        <v>233</v>
+      </c>
+      <c r="I37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37">
         <v>1</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>230</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>234</v>
+      </c>
+      <c r="B38" t="s">
         <v>30</v>
       </c>
-      <c r="C37" t="s">
-        <v>231</v>
-      </c>
-      <c r="D37" t="s">
-        <v>232</v>
-      </c>
-      <c r="E37" t="s">
-        <v>233</v>
-      </c>
-      <c r="F37" t="s">
-        <v>234</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="C38" t="s">
+        <v>235</v>
+      </c>
+      <c r="D38" t="s">
+        <v>236</v>
+      </c>
+      <c r="E38" t="s">
+        <v>237</v>
+      </c>
+      <c r="F38" t="s">
+        <v>238</v>
+      </c>
+      <c r="G38" t="s">
         <v>50</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H38" t="s">
         <v>37</v>
       </c>
-      <c r="I37" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37">
+      <c r="I38" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38">
         <v>4</v>
       </c>
-      <c r="K37" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>236</v>
-      </c>
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" t="s">
-        <v>237</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="K38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>241</v>
+      </c>
+      <c r="D39" t="s">
         <v>53</v>
       </c>
-      <c r="E38" t="s">
-        <v>238</v>
-      </c>
-      <c r="F38" t="s">
-        <v>239</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="E39" t="s">
+        <v>242</v>
+      </c>
+      <c r="F39" t="s">
+        <v>243</v>
+      </c>
+      <c r="G39" t="s">
         <v>43</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H39" t="s">
         <v>44</v>
       </c>
-      <c r="I38" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38">
-        <v>5</v>
-      </c>
-      <c r="K38" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>241</v>
-      </c>
-      <c r="B39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" t="s">
-        <v>242</v>
-      </c>
-      <c r="D39" t="s">
-        <v>243</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="I39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39" t="s">
         <v>244</v>
       </c>
-      <c r="F39" t="s">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>245</v>
       </c>
-      <c r="G39" t="s">
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>246</v>
+      </c>
+      <c r="D40" t="s">
+        <v>247</v>
+      </c>
+      <c r="E40" t="s">
+        <v>248</v>
+      </c>
+      <c r="F40" t="s">
+        <v>249</v>
+      </c>
+      <c r="G40" t="s">
         <v>67</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H40" t="s">
         <v>68</v>
       </c>
-      <c r="I39" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39">
-        <v>5</v>
-      </c>
-      <c r="K39" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>247</v>
-      </c>
-      <c r="B40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" t="s">
-        <v>248</v>
-      </c>
-      <c r="D40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" t="s">
-        <v>249</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="I40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+      <c r="K40" t="s">
         <v>250</v>
       </c>
-      <c r="G40" t="s">
-        <v>43</v>
-      </c>
-      <c r="H40" t="s">
-        <v>44</v>
-      </c>
-      <c r="I40" t="s">
-        <v>19</v>
-      </c>
-      <c r="J40">
-        <v>5</v>
-      </c>
-      <c r="K40" t="s">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>252</v>
       </c>
       <c r="B41" t="s">
         <v>30</v>
       </c>
       <c r="C41" t="s">
+        <v>252</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
         <v>253</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>254</v>
-      </c>
-      <c r="E41" t="s">
-        <v>255</v>
-      </c>
-      <c r="F41" t="s">
-        <v>256</v>
       </c>
       <c r="G41" t="s">
         <v>43</v>
@@ -2933,56 +2958,56 @@
         <v>5</v>
       </c>
       <c r="K41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="D42" t="s">
         <v>258</v>
       </c>
-      <c r="B42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>259</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>260</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42" t="s">
         <v>261</v>
       </c>
-      <c r="F42" t="s">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>262</v>
       </c>
-      <c r="G42" t="s">
-        <v>73</v>
-      </c>
-      <c r="H42" t="s">
-        <v>74</v>
-      </c>
-      <c r="I42" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42">
-        <v>5</v>
-      </c>
-      <c r="K42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
         <v>263</v>
       </c>
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>264</v>
-      </c>
-      <c r="D43" t="s">
-        <v>91</v>
       </c>
       <c r="E43" t="s">
         <v>265</v>
@@ -2991,162 +3016,162 @@
         <v>266</v>
       </c>
       <c r="G43" t="s">
+        <v>73</v>
+      </c>
+      <c r="H43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+      <c r="K43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>267</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>268</v>
+      </c>
+      <c r="D44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" t="s">
+        <v>269</v>
+      </c>
+      <c r="F44" t="s">
+        <v>270</v>
+      </c>
+      <c r="G44" t="s">
         <v>43</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H44" t="s">
         <v>44</v>
       </c>
-      <c r="I43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43">
+      <c r="I44" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44">
         <v>4</v>
       </c>
-      <c r="K43" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>268</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="K44" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>272</v>
+      </c>
+      <c r="B45" t="s">
         <v>30</v>
       </c>
-      <c r="C44" t="s">
-        <v>269</v>
-      </c>
-      <c r="D44" t="s">
-        <v>270</v>
-      </c>
-      <c r="E44" t="s">
-        <v>271</v>
-      </c>
-      <c r="F44" t="s">
-        <v>272</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="C45" t="s">
+        <v>273</v>
+      </c>
+      <c r="D45" t="s">
+        <v>274</v>
+      </c>
+      <c r="E45" t="s">
+        <v>275</v>
+      </c>
+      <c r="F45" t="s">
+        <v>276</v>
+      </c>
+      <c r="G45" t="s">
         <v>50</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H45" t="s">
         <v>37</v>
       </c>
-      <c r="I44" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44">
-        <v>5</v>
-      </c>
-      <c r="K44" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>274</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="I45" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45">
+        <v>5</v>
+      </c>
+      <c r="K45" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>278</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
         <v>46</v>
       </c>
-      <c r="D45" t="s">
-        <v>275</v>
-      </c>
-      <c r="E45" t="s">
-        <v>276</v>
-      </c>
-      <c r="F45" t="s">
-        <v>277</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="D46" t="s">
+        <v>279</v>
+      </c>
+      <c r="E46" t="s">
+        <v>280</v>
+      </c>
+      <c r="F46" t="s">
+        <v>281</v>
+      </c>
+      <c r="G46" t="s">
         <v>43</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H46" t="s">
         <v>44</v>
       </c>
-      <c r="I45" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45">
-        <v>5</v>
-      </c>
-      <c r="K45" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>279</v>
-      </c>
-      <c r="B46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" t="s">
-        <v>280</v>
-      </c>
-      <c r="D46" t="s">
-        <v>281</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="I46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46" t="s">
         <v>282</v>
       </c>
-      <c r="F46" t="s">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>283</v>
       </c>
-      <c r="G46" t="s">
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>284</v>
+      </c>
+      <c r="D47" t="s">
+        <v>285</v>
+      </c>
+      <c r="E47" t="s">
+        <v>286</v>
+      </c>
+      <c r="F47" t="s">
+        <v>287</v>
+      </c>
+      <c r="G47" t="s">
         <v>123</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H47" t="s">
         <v>124</v>
       </c>
-      <c r="I46" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46">
-        <v>5</v>
-      </c>
-      <c r="K46" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>285</v>
-      </c>
-      <c r="B47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" t="s">
-        <v>286</v>
-      </c>
-      <c r="D47" t="s">
-        <v>165</v>
-      </c>
-      <c r="E47" t="s">
-        <v>287</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="I47" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47" t="s">
         <v>288</v>
       </c>
-      <c r="G47" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" t="s">
-        <v>37</v>
-      </c>
-      <c r="I47" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47">
-        <v>4</v>
-      </c>
-      <c r="K47" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>289</v>
       </c>
@@ -3154,10 +3179,10 @@
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>290</v>
       </c>
       <c r="D48" t="s">
-        <v>290</v>
+        <v>169</v>
       </c>
       <c r="E48" t="s">
         <v>291</v>
@@ -3166,68 +3191,68 @@
         <v>292</v>
       </c>
       <c r="G48" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="K48" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>294</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" t="s">
+        <v>295</v>
+      </c>
+      <c r="E49" t="s">
+        <v>296</v>
+      </c>
+      <c r="F49" t="s">
+        <v>297</v>
+      </c>
+      <c r="G49" t="s">
         <v>43</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H49" t="s">
         <v>44</v>
       </c>
-      <c r="I48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J48">
-        <v>5</v>
-      </c>
-      <c r="K48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>293</v>
-      </c>
-      <c r="B49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" t="s">
-        <v>294</v>
-      </c>
-      <c r="F49" t="s">
-        <v>295</v>
-      </c>
-      <c r="G49" t="s">
-        <v>67</v>
-      </c>
-      <c r="H49" t="s">
-        <v>68</v>
-      </c>
       <c r="I49" t="s">
         <v>19</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>297</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
-        <v>298</v>
+        <v>64</v>
       </c>
       <c r="E50" t="s">
         <v>299</v>
@@ -3245,83 +3270,83 @@
         <v>19</v>
       </c>
       <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>301</v>
+      </c>
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" t="s">
+        <v>302</v>
+      </c>
+      <c r="D51" t="s">
+        <v>303</v>
+      </c>
+      <c r="E51" t="s">
+        <v>304</v>
+      </c>
+      <c r="F51" t="s">
+        <v>305</v>
+      </c>
+      <c r="G51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" t="s">
+        <v>68</v>
+      </c>
+      <c r="I51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51">
         <v>4</v>
       </c>
-      <c r="K50" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>302</v>
-      </c>
-      <c r="B51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" t="s">
-        <v>303</v>
-      </c>
-      <c r="D51" t="s">
-        <v>304</v>
-      </c>
-      <c r="E51" t="s">
-        <v>305</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="K51" t="s">
         <v>306</v>
       </c>
-      <c r="G51" t="s">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>307</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>308</v>
+      </c>
+      <c r="D52" t="s">
+        <v>309</v>
+      </c>
+      <c r="E52" t="s">
+        <v>310</v>
+      </c>
+      <c r="F52" t="s">
+        <v>311</v>
+      </c>
+      <c r="G52" t="s">
         <v>43</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H52" t="s">
         <v>44</v>
       </c>
-      <c r="I51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J51">
+      <c r="I52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52">
         <v>2</v>
       </c>
-      <c r="K51" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>308</v>
-      </c>
-      <c r="B52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" t="s">
-        <v>309</v>
-      </c>
-      <c r="D52" t="s">
-        <v>310</v>
-      </c>
-      <c r="E52" t="s">
-        <v>311</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="K52" t="s">
         <v>312</v>
       </c>
-      <c r="G52" t="s">
-        <v>108</v>
-      </c>
-      <c r="H52" t="s">
-        <v>109</v>
-      </c>
-      <c r="I52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J52">
-        <v>5</v>
-      </c>
-      <c r="K52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>313</v>
       </c>
@@ -3329,139 +3354,139 @@
         <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>132</v>
+        <v>314</v>
       </c>
       <c r="D53" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E53" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F53" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G53" t="s">
+        <v>108</v>
+      </c>
+      <c r="H53" t="s">
+        <v>109</v>
+      </c>
+      <c r="I53" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>319</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" t="s">
+        <v>320</v>
+      </c>
+      <c r="E54" t="s">
+        <v>321</v>
+      </c>
+      <c r="F54" t="s">
+        <v>322</v>
+      </c>
+      <c r="G54" t="s">
         <v>123</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H54" t="s">
         <v>124</v>
       </c>
-      <c r="I53" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53">
-        <v>5</v>
-      </c>
-      <c r="K53" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>318</v>
-      </c>
-      <c r="B54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" t="s">
-        <v>319</v>
-      </c>
-      <c r="D54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54" t="s">
-        <v>320</v>
-      </c>
-      <c r="F54" t="s">
-        <v>321</v>
-      </c>
-      <c r="G54" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54" t="s">
-        <v>27</v>
-      </c>
       <c r="I54" t="s">
         <v>19</v>
       </c>
       <c r="J54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K54" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B55" t="s">
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>325</v>
       </c>
       <c r="D55" t="s">
         <v>97</v>
       </c>
       <c r="E55" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>329</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" t="s">
+        <v>330</v>
+      </c>
+      <c r="F56" t="s">
+        <v>331</v>
+      </c>
+      <c r="G56" t="s">
         <v>50</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H56" t="s">
         <v>37</v>
       </c>
-      <c r="I55" t="s">
-        <v>19</v>
-      </c>
-      <c r="J55">
-        <v>5</v>
-      </c>
-      <c r="K55" t="s">
+      <c r="I56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>326</v>
-      </c>
-      <c r="B56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" t="s">
-        <v>327</v>
-      </c>
-      <c r="D56" t="s">
-        <v>328</v>
-      </c>
-      <c r="E56" t="s">
-        <v>329</v>
-      </c>
-      <c r="F56" t="s">
-        <v>330</v>
-      </c>
-      <c r="G56" t="s">
-        <v>43</v>
-      </c>
-      <c r="H56" t="s">
-        <v>44</v>
-      </c>
-      <c r="I56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J56">
-        <v>5</v>
-      </c>
-      <c r="K56" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>332</v>
       </c>
@@ -3481,10 +3506,10 @@
         <v>336</v>
       </c>
       <c r="G57" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H57" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I57" t="s">
         <v>19</v>
@@ -3496,7 +3521,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>338</v>
       </c>
@@ -3516,115 +3541,115 @@
         <v>342</v>
       </c>
       <c r="G58" t="s">
+        <v>50</v>
+      </c>
+      <c r="H58" t="s">
+        <v>37</v>
+      </c>
+      <c r="I58" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+      <c r="K58" t="s">
         <v>343</v>
       </c>
-      <c r="H58" t="s">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>344</v>
       </c>
-      <c r="I58" t="s">
-        <v>19</v>
-      </c>
-      <c r="J58">
-        <v>5</v>
-      </c>
-      <c r="K58" t="s">
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="D59" t="s">
         <v>346</v>
       </c>
-      <c r="B59" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>347</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
+        <v>348</v>
+      </c>
+      <c r="G59" t="s">
+        <v>349</v>
+      </c>
+      <c r="H59" t="s">
+        <v>350</v>
+      </c>
+      <c r="I59" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>352</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>353</v>
+      </c>
+      <c r="D60" t="s">
         <v>53</v>
       </c>
-      <c r="E59" t="s">
-        <v>348</v>
-      </c>
-      <c r="F59" t="s">
-        <v>349</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="E60" t="s">
+        <v>354</v>
+      </c>
+      <c r="F60" t="s">
+        <v>355</v>
+      </c>
+      <c r="G60" t="s">
         <v>43</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H60" t="s">
         <v>44</v>
       </c>
-      <c r="I59" t="s">
-        <v>19</v>
-      </c>
-      <c r="J59">
-        <v>5</v>
-      </c>
-      <c r="K59" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>351</v>
-      </c>
-      <c r="B60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="I60" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60">
+        <v>5</v>
+      </c>
+      <c r="K60" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>357</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
         <v>77</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>78</v>
       </c>
-      <c r="E60" t="s">
-        <v>352</v>
-      </c>
-      <c r="F60" t="s">
-        <v>353</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="E61" t="s">
+        <v>358</v>
+      </c>
+      <c r="F61" t="s">
+        <v>359</v>
+      </c>
+      <c r="G61" t="s">
         <v>50</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H61" t="s">
         <v>37</v>
-      </c>
-      <c r="I60" t="s">
-        <v>19</v>
-      </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>354</v>
-      </c>
-      <c r="B61" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" t="s">
-        <v>355</v>
-      </c>
-      <c r="D61" t="s">
-        <v>356</v>
-      </c>
-      <c r="E61" t="s">
-        <v>357</v>
-      </c>
-      <c r="F61" t="s">
-        <v>358</v>
-      </c>
-      <c r="G61" t="s">
-        <v>73</v>
-      </c>
-      <c r="H61" t="s">
-        <v>74</v>
       </c>
       <c r="I61" t="s">
         <v>19</v>
@@ -3636,68 +3661,68 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B62" t="s">
         <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D62" t="s">
-        <v>64</v>
+        <v>362</v>
       </c>
       <c r="E62" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F62" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G62" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="H62" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="I62" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="J62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K62" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>366</v>
       </c>
       <c r="D63" t="s">
         <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F63" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G63" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H63" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I63" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="J63">
         <v>3</v>
@@ -3706,8 +3731,43 @@
         <v>37</v>
       </c>
     </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>369</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" t="s">
+        <v>370</v>
+      </c>
+      <c r="F64" t="s">
+        <v>371</v>
+      </c>
+      <c r="G64" t="s">
+        <v>50</v>
+      </c>
+      <c r="H64" t="s">
+        <v>37</v>
+      </c>
+      <c r="I64" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+      <c r="K64" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/src/lib/external-participant.xlsx
+++ b/src/lib/external-participant.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E875F5B7-C4C7-4662-B5FD-3956A9B9D45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264442A2-0869-478D-A688-0E8AC22E4617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="External Participants" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="453">
   <si>
     <t>Name</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Team Members</t>
   </si>
   <si>
+    <t>Payment SS</t>
+  </si>
+  <si>
     <t>Gokulramanan V</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
     <t>Sai Vignesh Raj M, Santhosh G, Sri Raam H, Hanush M</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2F3UiocPAOckaMBdGxJt9vu1IaKz13?alt=media&amp;token=6458ca6c-11ce-460e-9513-ce0b770ab3e5</t>
+  </si>
+  <si>
     <t>Hariprasath V</t>
   </si>
   <si>
@@ -104,6 +110,9 @@
     <t>Tamizhvendhan S, Sakthimurugan S, Balavishwajith S, Ajith G</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2F44BMlnbxxTguQUMFXfualAffc4h2?alt=media&amp;token=4e7cf893-d4ff-4f03-a103-9b8e7d7cdc80</t>
+  </si>
+  <si>
     <t xml:space="preserve">SHAIK RUKHIYA MASTHANI </t>
   </si>
   <si>
@@ -131,6 +140,9 @@
     <t/>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2F4LbAlrynGEQx7nrwfLnRh6SC3RV2?alt=media&amp;token=a15a60dc-6550-42c0-9419-00418d530655</t>
+  </si>
+  <si>
     <t>NIHIL</t>
   </si>
   <si>
@@ -152,6 +164,9 @@
     <t>Workforce Management System</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2F4nUhMdPIYseFhJw3b41cOJRkW3n2?alt=media&amp;token=a4c49208-fe4e-4305-94ec-e2f51d43296b</t>
+  </si>
+  <si>
     <t>Shubhankar Ganesh Yadav</t>
   </si>
   <si>
@@ -170,6 +185,9 @@
     <t>PS-OPEN</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2F5IzIdjLoRmQxv3cAl46Olhn2tYj2?alt=media&amp;token=0aa36792-364a-4456-b898-61014ba9f1cf</t>
+  </si>
+  <si>
     <t>Swathi.S</t>
   </si>
   <si>
@@ -185,6 +203,9 @@
     <t>7358357078</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2F5fC4cT89y0VLLKUBwAnsMSyhRLt1?alt=media&amp;token=9d75872d-b681-4399-ace3-52eb31686305</t>
+  </si>
+  <si>
     <t>Spandana Murala</t>
   </si>
   <si>
@@ -206,6 +227,9 @@
     <t>Asritha Suthapalli, sarayu simhadri, Jamapana satya rishitha</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2F5osAeBTdGPcZTM3PDZdbkAGt2xw1?alt=media&amp;token=522c0a8a-b3e6-41c2-968f-ad611ac05bc9</t>
+  </si>
+  <si>
     <t>Siddharth M</t>
   </si>
   <si>
@@ -227,6 +251,9 @@
     <t>Pranesh Kumar V, Waatson J, Mohammed Yasir A, Arjun VL</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2F7M9STecjhUhozbCo80QspAtXpc33?alt=media&amp;token=b34282d1-213d-4f96-8ee1-92abfd2b427d</t>
+  </si>
+  <si>
     <t xml:space="preserve">Logesh V </t>
   </si>
   <si>
@@ -245,6 +272,9 @@
     <t>Dinesh A , Manoj Kumar M , Kathirvel N , Deepak M S</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2F7imyiglTTtYaHkLpFOzlDBQgjLR2?alt=media&amp;token=f98ba752-bbd9-4f5b-bcb4-0c575bf6f4fc</t>
+  </si>
+  <si>
     <t>Karthikeyan.R</t>
   </si>
   <si>
@@ -263,6 +293,9 @@
     <t>Jennifer Emimal.S, J lokith</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2F8FJqRXT1VFNZV0q3h957sId68EK2?alt=media&amp;token=14706a09-332e-4ab3-acb6-5ce9d9d876ab</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vaishnavi Venkatesh </t>
   </si>
   <si>
@@ -284,6 +317,9 @@
     <t>Interactive 3D Web Experiences with Real-Time Physics and Animation</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2F9riYj8I2rWev5iuHW679mRu02v53?alt=media&amp;token=1f8e9a0a-df47-4171-8ca2-68bbf94778c8</t>
+  </si>
+  <si>
     <t>Rohan R</t>
   </si>
   <si>
@@ -302,6 +338,9 @@
     <t>Shaun Allan H, Samyuktaa Sivakumar, Sneha Kumarajothi</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FACWa4rM6t6TUZ3LnZnagesaexai2?alt=media&amp;token=99c32a75-aa5e-4adb-8a4b-0c45156ae0b6</t>
+  </si>
+  <si>
     <t>DHARSHAN B</t>
   </si>
   <si>
@@ -326,6 +365,9 @@
     <t>Sundara Raaman R S, Reeman Infant D, Yogesh R, Nishvanth T S</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FBxf8SY0k8rgNmpmeC3TUk0rLUlq1?alt=media&amp;token=32d94c0b-4726-4c6e-88e6-eeea7ed09a35</t>
+  </si>
+  <si>
     <t>Bhimavarapu Koushik Reddy</t>
   </si>
   <si>
@@ -350,6 +392,9 @@
     <t>Mohammad Khaja Shaik, Shrinath Munagapati, Madala Yatish Datta, Santhosh Kumar Chintada</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FCRJQsZ2kuhWiwAaoKjCmFiRWyLV2?alt=media&amp;token=623e2fbb-1085-4373-af0c-f61b9e4f5bb6</t>
+  </si>
+  <si>
     <t>Rakesh S R</t>
   </si>
   <si>
@@ -371,6 +416,9 @@
     <t>Image Caption Generator with Tamil Captions</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FEEs4S3DgiOTqnGWDqfXaSG0Jy3k1?alt=media&amp;token=362270d4-9b9f-48d0-b137-e574d4ba6638</t>
+  </si>
+  <si>
     <t>Sundaram R K</t>
   </si>
   <si>
@@ -395,6 +443,9 @@
     <t>Pranavaa P, Vishveswar R, Sam Jefferson MP , Sakthivel A</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FErfHaHhBSkSNBfoXdFPRDI2nSPP2?alt=media&amp;token=c301ae8e-6859-41e7-9236-d456e434fa69</t>
+  </si>
+  <si>
     <t>Abiram</t>
   </si>
   <si>
@@ -410,6 +461,36 @@
     <t>936 127 0958</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FF6yssPXnEUVqQrP6l6YupUbVqFR2?alt=media&amp;token=c4930e3b-6de1-4d5b-84a0-db0b7315688b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priyanka A J </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR University </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCA Game Development </t>
+  </si>
+  <si>
+    <t>priyanka.aj@cmr.edu.in</t>
+  </si>
+  <si>
+    <t>6369883045</t>
+  </si>
+  <si>
+    <t>PS-AR4</t>
+  </si>
+  <si>
+    <t>Improving Remote Education with AR/VR</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FFA3azOsFOPUcKZQXx61LNur0oCp1?alt=media&amp;token=440b877a-74cf-4d61-9d2d-16128a31ed4f</t>
+  </si>
+  <si>
     <t>Harishankar</t>
   </si>
   <si>
@@ -440,6 +521,9 @@
     <t>Sarvarshini S, Viswa K, Shradha Premarajan, Shaarika R Kumar</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FGPjHug7GWvhcj7lZBSY6IyFMvJn1?alt=media&amp;token=1de999c0-a5ee-494a-8c83-62500ca0af7c</t>
+  </si>
+  <si>
     <t>Roshan Kumar N K</t>
   </si>
   <si>
@@ -455,6 +539,9 @@
     <t>9585497892</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FHakzCxy7UMbbl9PR3B6rjzGEj3z2?alt=media&amp;token=8044137e-37c2-493c-a9b5-b08e4d1844ff</t>
+  </si>
+  <si>
     <t>Yogeshwar</t>
   </si>
   <si>
@@ -473,6 +560,9 @@
     <t>Sachin Kumar, Tharun Raju, Acsah Susan Mathew, Kanchana Krishna</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FK66SnEF4kOaVB0vxAqSIkjCmNC32?alt=media&amp;token=672297fc-25aa-4e3f-a2fa-3c0d6ee5c43c</t>
+  </si>
+  <si>
     <t>Mubeenah J</t>
   </si>
   <si>
@@ -482,6 +572,12 @@
     <t>6379605717</t>
   </si>
   <si>
+    <t xml:space="preserve">Uma maheswari M, Vegashree M, Renuka S, Sanjay kumar </t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FKELrSQhfILXBehvCaXpKmbdntTt1?alt=media&amp;token=57710e19-c3de-470f-af0b-fa66309f8c6d</t>
+  </si>
+  <si>
     <t>THAMEEM MUL ANSARI S</t>
   </si>
   <si>
@@ -500,6 +596,9 @@
     <t>ABUBACKER SIDDIQUE S, SANJAY KUMAR M, SANTHOSH S, HARIKRISHNAN P</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FLfha3hOSPbRq9YSUGQszfc0adrx2?alt=media&amp;token=dc686f00-f31e-46bb-a476-299fa991439d</t>
+  </si>
+  <si>
     <t>Varunesh</t>
   </si>
   <si>
@@ -518,6 +617,9 @@
     <t>Vignesh, Arul balaji, Madhumita , Gokul raj</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FNLandv5eibb45yvlgh1WX5PgR6f2?alt=media&amp;token=8127ea95-0189-4a37-b176-f2eff0217337</t>
+  </si>
+  <si>
     <t>K.Sujitha</t>
   </si>
   <si>
@@ -533,6 +635,9 @@
     <t>9342865895</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FNoBVLhUG9fPWQx1PQt7o7U4CNNn1?alt=media&amp;token=ce672987-0d3f-4bef-bc71-a4528aa8ad61</t>
+  </si>
+  <si>
     <t xml:space="preserve">KANMANI </t>
   </si>
   <si>
@@ -554,6 +659,9 @@
     <t>Dharani.J, Archana A, Deepika Sri R</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FO0gNXcYXorcH8mHn6kUj6TcA6gj1?alt=media&amp;token=0f28fa06-b76f-4b2c-9823-349e8c6574f4</t>
+  </si>
+  <si>
     <t>Pavan Prakash K</t>
   </si>
   <si>
@@ -572,6 +680,9 @@
     <t>Prasanth M, Lohith Vijay G, Yuthish G, Veerandi V</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FQCZghfwJQzXblMvcYFfB6XD2FgC2?alt=media&amp;token=4ef850ba-9a7b-4fdf-a4a1-a1d638d7c0bb</t>
+  </si>
+  <si>
     <t>Sathis pandy D</t>
   </si>
   <si>
@@ -590,6 +701,9 @@
     <t>Narmatha sri D , Rameeza Yasmeen.S, Om shree gyanraj , Keerthana S</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FQiwmU4Upr8TphedvThv83fvI8Mi1?alt=media&amp;token=9ec91b3e-c83b-4947-9c7c-396a9fffc355</t>
+  </si>
+  <si>
     <t>Roshni Nekkanti</t>
   </si>
   <si>
@@ -608,6 +722,9 @@
     <t>Deepika Namburi, Harshitha V</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FUzgBqxrxa5W4hmWAOEjHGR3kebp2?alt=media&amp;token=f5c5a976-2937-44cd-bed6-f0a01bef495c</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yuvan Shankar B </t>
   </si>
   <si>
@@ -635,6 +752,9 @@
     <t>9884612064</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FWQz0nkqERoWsdOw7ICIGWWgs2IG2?alt=media&amp;token=f452a061-3bae-4fc7-a85b-c31cad79f990</t>
+  </si>
+  <si>
     <t>Harini V</t>
   </si>
   <si>
@@ -647,6 +767,9 @@
     <t>8838422248</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FYrQyiw0EvTTqdRU3SGB33nVPT412?alt=media&amp;token=d56ec242-d2ff-4632-ae5b-fb5c82232713</t>
+  </si>
+  <si>
     <t>Nishika bugatha</t>
   </si>
   <si>
@@ -665,6 +788,9 @@
     <t>Nikhitha SE, S.Sarah, Vidyapriyanka S, Namrutha.L</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2Fb3a2jLdUltTTgyEmWI9tiU4xUIt1?alt=media&amp;token=40e2a914-14ef-485c-8f0e-915d145abe34</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arun varshan </t>
   </si>
   <si>
@@ -680,6 +806,9 @@
     <t>Bala Murugan , Aishwarya</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2Fc7YtlRrYDcfSX0KzsVLnSmI8GXn1?alt=media&amp;token=a8f6457f-d074-4873-954c-ea7203c43638</t>
+  </si>
+  <si>
     <t>Kanishk K S</t>
   </si>
   <si>
@@ -698,6 +827,9 @@
     <t>Lalith Kumar M, Ashik C, M Pardhasaradhi, Karthik DB</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FcRVBoT9RRmQFWur803icKulaKwz1?alt=media&amp;token=baf998a4-07ce-4f65-82eb-b82698cc75a2</t>
+  </si>
+  <si>
     <t>Dhruv Bhojaraj</t>
   </si>
   <si>
@@ -719,6 +851,9 @@
     <t>AR-Based Assembly Line Assistance</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FdJX3X6jJT5SzWFBzsaiugVaeaEq1?alt=media&amp;token=08b4a0db-18d1-4fa1-ac14-25a74c767e90</t>
+  </si>
+  <si>
     <t>Prisha S</t>
   </si>
   <si>
@@ -737,6 +872,9 @@
     <t xml:space="preserve">TP Gayathri , Ananthavalli M, Gayathri V </t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FdVwJBgpLi6XciM92MJmmGECq9di2?alt=media&amp;token=da22cab3-e521-41ed-bf8b-d82efa32fdc0</t>
+  </si>
+  <si>
     <t>Tharun kumar V</t>
   </si>
   <si>
@@ -752,6 +890,9 @@
     <t xml:space="preserve">Vishnu R, Vignesh V, Pradesh VM , Umesh Kumar MD </t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FfdYdoJoMEMNVzMBoZS8eoxALbtx1?alt=media&amp;token=ae720abc-c623-4247-95ac-475df2554ed6</t>
+  </si>
+  <si>
     <t>Monish Kumaar</t>
   </si>
   <si>
@@ -770,6 +911,9 @@
     <t>Sai Ganesh, Hitesh Raj, Pandeti Sai Vinitha, Tumu mani sai pavan</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FgQVrLkAQgMUri2dYGzOaBL74V952?alt=media&amp;token=d9ed7939-a975-4e2e-9263-9b85f89804d0</t>
+  </si>
+  <si>
     <t>Yuthika Anvitha S</t>
   </si>
   <si>
@@ -785,6 +929,9 @@
     <t>Srinivas S, Sreekar Kashyap C, Sudhiksha N B, Yogeshram R</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2Fgb9UE3PomebelDZM19yibEZqa0r2?alt=media&amp;token=b7ffe395-a99c-4787-9c5d-d8df6b74b0b4</t>
+  </si>
+  <si>
     <t>Sujitha J</t>
   </si>
   <si>
@@ -803,6 +950,9 @@
     <t>Thirumalaivasan GJ, Harishwar KS, Shruthi B.M, Bharathi R</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FhNu7cXshIJO8X0Q20XluaV59Igo2?alt=media&amp;token=f5abf61e-7119-4b3f-b137-160820a794af</t>
+  </si>
+  <si>
     <t>mohammed roshan ibrahim</t>
   </si>
   <si>
@@ -818,6 +968,9 @@
     <t>8754864334</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2Fhi89TjFoCKWuLN2UqWrfFYluQy22?alt=media&amp;token=1fc47124-1532-4dc1-b3e1-3309ca6c9533</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lingesh </t>
   </si>
   <si>
@@ -833,6 +986,9 @@
     <t>Mugesh Rao D, Kaviyarasan P, Deepak U</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FjO4WKTEB4ARkkIDH3PE2GoRwYV23?alt=media&amp;token=c9c6c02f-40cd-432e-b70f-09d5c3f50e74</t>
+  </si>
+  <si>
     <t>Idhika P</t>
   </si>
   <si>
@@ -851,6 +1007,9 @@
     <t>Bhuvaneshwaran , Aravindhan C, Cletus Rajkumar, Akeel Ahmed RS</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FkLa1xQ140YaY5R5CQIH068FbWgw1?alt=media&amp;token=1eaf3219-df5f-4352-bff8-ce2012c7e368</t>
+  </si>
+  <si>
     <t>Siddharth Dosi</t>
   </si>
   <si>
@@ -866,6 +1025,9 @@
     <t xml:space="preserve">Happy deswal , Talluru Lijith , Tanishq M, Harishankar </t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FkMBcDZSXRLY3pZgWnK4cVAxD6tJ2?alt=media&amp;token=ce517dd7-00ac-4f84-a2f2-2b16c1512d6c</t>
+  </si>
+  <si>
     <t>M.brinesh varshan</t>
   </si>
   <si>
@@ -884,6 +1046,9 @@
     <t>Heera.S, Gokulakrishnan G, Jasmine J, Akshaya K</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FklfrPGJ3wfbnO23oiHcHtRI5wh63?alt=media&amp;token=e2d2eadd-fee6-42b1-8650-60ff9c7fe7fe</t>
+  </si>
+  <si>
     <t>John Wesley L</t>
   </si>
   <si>
@@ -899,6 +1064,9 @@
     <t>Mohammed Habib S, Lankesh M, Ragul C</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FlsFhUnTyiBczPZP7ytVaDRAqcS42?alt=media&amp;token=b3f09355-dd22-4ad0-bb96-52ca98e6aa79</t>
+  </si>
+  <si>
     <t>RENIL IMMANUEL C</t>
   </si>
   <si>
@@ -911,6 +1079,9 @@
     <t>8939735620</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2Fnmfn2tuh7QRgYy1ba2JgwQFog4A2?alt=media&amp;token=00d65d20-ad62-48de-8877-c6b131962175</t>
+  </si>
+  <si>
     <t>Nishanth Matthew Paul</t>
   </si>
   <si>
@@ -920,6 +1091,9 @@
     <t>7550099030</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2F8FreqUJqvpZWIqM22c6ETOnMWFs2?alt=media&amp;token=d0d45d3b-7997-4beb-bcb9-927fad3a3e35</t>
+  </si>
+  <si>
     <t>Edel quinn sandra</t>
   </si>
   <si>
@@ -938,6 +1112,9 @@
     <t xml:space="preserve">Neeraja, Abirami ramesh, Harini </t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2Fp9Bz3VaolFeIKmn2M5arpGwrDof1?alt=media&amp;token=65fa35c7-6509-4e5a-bdc9-2d6ec70bd5d1</t>
+  </si>
+  <si>
     <t>Rakhesh Krishna P</t>
   </si>
   <si>
@@ -956,6 +1133,9 @@
     <t>Mohnish K J</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FpLgmwRDQPTdqPTACetK5oVd4Cbr1?alt=media&amp;token=de8baaa6-18aa-4226-baf8-9a52abe44eed</t>
+  </si>
+  <si>
     <t>Mathew Shaun Rosario</t>
   </si>
   <si>
@@ -974,6 +1154,24 @@
     <t>Pasala Sathvika , Nulin Jeriba J, Mukilan B, Priyanka P</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FqUEY9P5n3KZMJKXouYyCWabdDCW2?alt=media&amp;token=2836edef-45ad-4319-a86e-cd8f2ae62193</t>
+  </si>
+  <si>
+    <t>Divyasri S</t>
+  </si>
+  <si>
+    <t>BE-ECE</t>
+  </si>
+  <si>
+    <t>sdivyasri21@gmail.com</t>
+  </si>
+  <si>
+    <t>8754725437</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FrJN84x3MIiYoKKjjLYGlCIiBBbc2?alt=media&amp;token=398e9c4c-7375-4dd5-91f0-0f991a260797</t>
+  </si>
+  <si>
     <t>Manasesh K S A</t>
   </si>
   <si>
@@ -989,6 +1187,24 @@
     <t xml:space="preserve">Jaya Arshin A, Asvika M A, Manu Savithri V , SAIEED MARICHAMY </t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FrLcU077cmOgUlrWaauIWRV54lgl1?alt=media&amp;token=0faadf31-b42a-47cd-b60b-77c3f0c91f18</t>
+  </si>
+  <si>
+    <t>RAJI</t>
+  </si>
+  <si>
+    <t>9123205081@kcgcollege.com</t>
+  </si>
+  <si>
+    <t>8015479228</t>
+  </si>
+  <si>
+    <t>NITHILAN, VISHAL , Pugazhendhi , Naveenkumar</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2Frx5TD83hzQQURrNNVN4E5F3wa4D2?alt=media&amp;token=a7b57cbc-8049-44fe-89f5-0800d3c891bb</t>
+  </si>
+  <si>
     <t>Hrushikesh</t>
   </si>
   <si>
@@ -1004,6 +1220,9 @@
     <t>Pysone Rogan J, SeshiReddy, Akhil Saketh Reddy Sabbella</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2Fs6YRfgTNGvU8q5eEeclNIUfK2Qg2?alt=media&amp;token=0f1d764e-c0a9-480c-812b-3b62c684b0b8</t>
+  </si>
+  <si>
     <t>Vikram. S</t>
   </si>
   <si>
@@ -1031,6 +1250,9 @@
     <t>Madhumitha .R, darsni TS, sandhiya, karthick kumar</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FsY1Fdx9zhETRkyYxN8UZqk63Etn1?alt=media&amp;token=32a4326a-ea19-42ce-a379-3be822bffad0</t>
+  </si>
+  <si>
     <t>Abishek J A</t>
   </si>
   <si>
@@ -1049,6 +1271,9 @@
     <t>Amritha DS , Kaviya S, Prathyush Hariharan M R, Niveditha .S</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FsxGs0QUNiGW7sEMOf6Gtm7KqRFB2?alt=media&amp;token=496cda80-e77a-4583-80de-84bc477dae3d</t>
+  </si>
+  <si>
     <t>B.KISHORE</t>
   </si>
   <si>
@@ -1073,6 +1298,9 @@
     <t>B.Jaffar, Akash M, AKALYA .K , V .Kanagaraj</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2Ft5AD2opzVUggdHkH1FfSJ7wAhJ42?alt=media&amp;token=deee4ba2-cb59-42ee-8214-8a1a7777cfaf</t>
+  </si>
+  <si>
     <t>Nihil m</t>
   </si>
   <si>
@@ -1088,6 +1316,9 @@
     <t xml:space="preserve">Gollapalli Ganesh , Bhuvanesh R, Lokesh Y, Mohammad Naveed </t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FtaJYH7XVVeSv6WmBHrfCeg6bP8w1?alt=media&amp;token=48acfb77-3bd5-4a76-b912-2205300b8f30</t>
+  </si>
+  <si>
     <t>Sanjai S</t>
   </si>
   <si>
@@ -1097,6 +1328,9 @@
     <t>9344449637</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FucFbdz5k07QnkvSs7GcaOhUbYym2?alt=media&amp;token=ea9318a2-6a80-4117-8104-a84a3a964ee8</t>
+  </si>
+  <si>
     <t>Gunji Geethika</t>
   </si>
   <si>
@@ -1112,6 +1346,9 @@
     <t>8667821322</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2Fx4rIoexJV5dmMHy8jxkLSsA3KsS2?alt=media&amp;token=bddd8425-515a-4b3e-b5e7-a9bf6e953941</t>
+  </si>
+  <si>
     <t>Deepika Namburi</t>
   </si>
   <si>
@@ -1124,6 +1361,9 @@
     <t>9014887106</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FxyXB4xT7a2SuNamPFxxFkeGJULN2?alt=media&amp;token=f9b307c8-e1de-470c-8973-5b22c65e8a3d</t>
+  </si>
+  <si>
     <t>Jison R</t>
   </si>
   <si>
@@ -1131,16 +1371,27 @@
   </si>
   <si>
     <t>7094241236</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/innovate-hub.appspot.com/o/paymentScreenshots%2FzgiMkATNyySsuSY4k2NccIEKTlo1?alt=media&amp;token=3daf9b4f-ac73-4685-84ac-d3b40fc5b47b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1163,13 +1414,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1507,9 +1761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1524,9 +1780,10 @@
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="100" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1560,2213 +1817,2525 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2">
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5">
         <v>5</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
         <v>55</v>
       </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="L7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="L8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="L9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10">
         <v>5</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="L10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="L11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="L12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13">
         <v>4</v>
       </c>
       <c r="K13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="L13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J14">
         <v>5</v>
       </c>
       <c r="K14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="L14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="H15" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J15">
         <v>5</v>
       </c>
       <c r="K15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="L15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="H16" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J16">
         <v>4</v>
       </c>
       <c r="K16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="L16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E17" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="G17" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="H17" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J17">
         <v>5</v>
       </c>
       <c r="K17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+      <c r="L17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J18">
         <v>5</v>
       </c>
       <c r="K18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="L18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="F19" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="H19" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="L19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" t="s">
-        <v>136</v>
+        <v>65</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="G20" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="H20" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J20">
         <v>5</v>
       </c>
       <c r="K20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="L20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" t="s">
-        <v>144</v>
+        <v>103</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J21">
         <v>5</v>
       </c>
       <c r="K21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="E22" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="F22" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="G22" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="H22" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J22">
         <v>5</v>
       </c>
       <c r="K22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="L22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="E23" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="H23" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J23">
         <v>5</v>
       </c>
       <c r="K23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="L23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="F24" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="G24" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J24">
         <v>5</v>
       </c>
       <c r="K24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+      <c r="L24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="E25" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="F25" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="H25" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J25">
         <v>5</v>
       </c>
       <c r="K25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="L25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="D26" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="E26" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="F26" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J26">
         <v>5</v>
       </c>
       <c r="K26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="L26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="E27" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="F27" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="G27" t="s">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>209</v>
+      </c>
+      <c r="F28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" t="s">
+        <v>212</v>
+      </c>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28">
         <v>4</v>
       </c>
-      <c r="K27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>179</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" t="s">
-        <v>181</v>
-      </c>
-      <c r="E28" t="s">
-        <v>182</v>
-      </c>
-      <c r="F28" t="s">
-        <v>183</v>
-      </c>
-      <c r="G28" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28">
-        <v>5</v>
-      </c>
       <c r="K28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="L28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="D29" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="E29" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="F29" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J29">
         <v>5</v>
       </c>
       <c r="K29" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="L29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="D30" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="E30" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="F30" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="H30" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I30" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30" t="s">
+        <v>227</v>
+      </c>
+      <c r="L30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" t="s">
+        <v>231</v>
+      </c>
+      <c r="E31" t="s">
+        <v>232</v>
+      </c>
+      <c r="F31" t="s">
+        <v>233</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31">
         <v>3</v>
       </c>
-      <c r="K30" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>197</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D31" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" t="s">
-        <v>199</v>
-      </c>
-      <c r="F31" t="s">
-        <v>200</v>
-      </c>
-      <c r="G31" t="s">
-        <v>100</v>
-      </c>
-      <c r="H31" t="s">
-        <v>101</v>
-      </c>
-      <c r="I31" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31">
+      <c r="K31" t="s">
+        <v>234</v>
+      </c>
+      <c r="L31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" t="s">
+        <v>238</v>
+      </c>
+      <c r="F32" t="s">
+        <v>239</v>
+      </c>
+      <c r="G32" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32">
         <v>5</v>
       </c>
-      <c r="K31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>201</v>
-      </c>
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>202</v>
-      </c>
-      <c r="D32" t="s">
-        <v>203</v>
-      </c>
-      <c r="E32" t="s">
-        <v>204</v>
-      </c>
-      <c r="F32" t="s">
-        <v>205</v>
-      </c>
-      <c r="G32" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32" t="s">
-        <v>88</v>
-      </c>
-      <c r="I32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32">
+      <c r="K32" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>241</v>
+      </c>
+      <c r="D33" t="s">
+        <v>242</v>
+      </c>
+      <c r="E33" t="s">
+        <v>243</v>
+      </c>
+      <c r="F33" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33">
         <v>1</v>
       </c>
-      <c r="K32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" t="s">
-        <v>207</v>
-      </c>
-      <c r="E33" t="s">
-        <v>208</v>
-      </c>
-      <c r="F33" t="s">
-        <v>209</v>
-      </c>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33">
-        <v>5</v>
-      </c>
       <c r="K33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="L33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="D34" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="E34" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="F34" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="G34" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="H34" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J34">
         <v>5</v>
       </c>
       <c r="K34" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="L34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="E35" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="F35" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35" t="s">
+        <v>256</v>
+      </c>
+      <c r="L35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>258</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>259</v>
+      </c>
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" t="s">
+        <v>260</v>
+      </c>
+      <c r="F36" t="s">
+        <v>261</v>
+      </c>
+      <c r="G36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36">
         <v>3</v>
       </c>
-      <c r="K35" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>221</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
-        <v>222</v>
-      </c>
-      <c r="D36" t="s">
-        <v>223</v>
-      </c>
-      <c r="E36" t="s">
-        <v>224</v>
-      </c>
-      <c r="F36" t="s">
-        <v>225</v>
-      </c>
-      <c r="G36" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" t="s">
-        <v>44</v>
-      </c>
-      <c r="I36" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36">
+      <c r="K36" t="s">
+        <v>262</v>
+      </c>
+      <c r="L36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37" t="s">
+        <v>267</v>
+      </c>
+      <c r="F37" t="s">
+        <v>268</v>
+      </c>
+      <c r="G37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37">
         <v>5</v>
       </c>
-      <c r="K36" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>227</v>
-      </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" t="s">
-        <v>228</v>
-      </c>
-      <c r="D37" t="s">
-        <v>229</v>
-      </c>
-      <c r="E37" t="s">
-        <v>230</v>
-      </c>
-      <c r="F37" t="s">
-        <v>231</v>
-      </c>
-      <c r="G37" t="s">
-        <v>232</v>
-      </c>
-      <c r="H37" t="s">
-        <v>233</v>
-      </c>
-      <c r="I37" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37">
+      <c r="K37" t="s">
+        <v>269</v>
+      </c>
+      <c r="L37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" t="s">
+        <v>273</v>
+      </c>
+      <c r="E38" t="s">
+        <v>274</v>
+      </c>
+      <c r="F38" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" t="s">
+        <v>276</v>
+      </c>
+      <c r="H38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38">
         <v>1</v>
       </c>
-      <c r="K37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>234</v>
-      </c>
-      <c r="B38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" t="s">
-        <v>235</v>
-      </c>
-      <c r="D38" t="s">
-        <v>236</v>
-      </c>
-      <c r="E38" t="s">
-        <v>237</v>
-      </c>
-      <c r="F38" t="s">
-        <v>238</v>
-      </c>
-      <c r="G38" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" t="s">
-        <v>37</v>
-      </c>
-      <c r="I38" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38">
+      <c r="K38" t="s">
+        <v>40</v>
+      </c>
+      <c r="L38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>279</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>280</v>
+      </c>
+      <c r="D39" t="s">
+        <v>281</v>
+      </c>
+      <c r="E39" t="s">
+        <v>282</v>
+      </c>
+      <c r="F39" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39">
         <v>4</v>
       </c>
-      <c r="K38" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>240</v>
-      </c>
-      <c r="B39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" t="s">
-        <v>241</v>
-      </c>
-      <c r="D39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" t="s">
-        <v>242</v>
-      </c>
-      <c r="F39" t="s">
-        <v>243</v>
-      </c>
-      <c r="G39" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" t="s">
-        <v>44</v>
-      </c>
-      <c r="I39" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39">
-        <v>5</v>
-      </c>
       <c r="K39" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+      <c r="L39" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="D40" t="s">
-        <v>247</v>
+        <v>59</v>
       </c>
       <c r="E40" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="F40" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="G40" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J40">
         <v>5</v>
       </c>
       <c r="K40" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+      <c r="L40" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>294</v>
       </c>
       <c r="E41" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="F41" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H41" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J41">
         <v>5</v>
       </c>
       <c r="K41" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+      <c r="L41" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="D42" t="s">
-        <v>258</v>
+        <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="F42" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J42">
         <v>5</v>
       </c>
       <c r="K42" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+      <c r="L42" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="D43" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="E43" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="F43" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="G43" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J43">
         <v>5</v>
       </c>
       <c r="K43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+      <c r="L43" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>314</v>
       </c>
       <c r="E44" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="F44" t="s">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="I44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J44">
+        <v>5</v>
+      </c>
+      <c r="K44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>318</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>319</v>
+      </c>
+      <c r="D45" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" t="s">
+        <v>320</v>
+      </c>
+      <c r="F45" t="s">
+        <v>321</v>
+      </c>
+      <c r="G45" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" t="s">
+        <v>48</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45">
         <v>4</v>
       </c>
-      <c r="K44" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>272</v>
-      </c>
-      <c r="B45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" t="s">
-        <v>273</v>
-      </c>
-      <c r="D45" t="s">
-        <v>274</v>
-      </c>
-      <c r="E45" t="s">
-        <v>275</v>
-      </c>
-      <c r="F45" t="s">
-        <v>276</v>
-      </c>
-      <c r="G45" t="s">
-        <v>50</v>
-      </c>
-      <c r="H45" t="s">
-        <v>37</v>
-      </c>
-      <c r="I45" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45">
-        <v>5</v>
-      </c>
       <c r="K45" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="L45" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>278</v>
+        <v>324</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>325</v>
       </c>
       <c r="D46" t="s">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="E46" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="F46" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H46" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J46">
         <v>5</v>
       </c>
       <c r="K46" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="L46" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>284</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="E47" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="F47" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="G47" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J47">
         <v>5</v>
       </c>
       <c r="K47" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+      <c r="L47" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="D48" t="s">
-        <v>169</v>
+        <v>339</v>
       </c>
       <c r="E48" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="F48" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="G48" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="H48" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="I48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J48">
+        <v>5</v>
+      </c>
+      <c r="K48" t="s">
+        <v>342</v>
+      </c>
+      <c r="L48" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>344</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>345</v>
+      </c>
+      <c r="D49" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" t="s">
+        <v>346</v>
+      </c>
+      <c r="F49" t="s">
+        <v>347</v>
+      </c>
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
+      <c r="H49" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49">
         <v>4</v>
       </c>
-      <c r="K48" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>294</v>
-      </c>
-      <c r="B49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" t="s">
-        <v>295</v>
-      </c>
-      <c r="E49" t="s">
-        <v>296</v>
-      </c>
-      <c r="F49" t="s">
-        <v>297</v>
-      </c>
-      <c r="G49" t="s">
-        <v>43</v>
-      </c>
-      <c r="H49" t="s">
-        <v>44</v>
-      </c>
-      <c r="I49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J49">
+      <c r="K49" t="s">
+        <v>348</v>
+      </c>
+      <c r="L49" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>350</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" t="s">
+        <v>351</v>
+      </c>
+      <c r="E50" t="s">
+        <v>352</v>
+      </c>
+      <c r="F50" t="s">
+        <v>353</v>
+      </c>
+      <c r="G50" t="s">
+        <v>47</v>
+      </c>
+      <c r="H50" t="s">
+        <v>48</v>
+      </c>
+      <c r="I50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50">
         <v>5</v>
       </c>
-      <c r="K49" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>298</v>
-      </c>
-      <c r="B50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50" t="s">
-        <v>299</v>
-      </c>
-      <c r="F50" t="s">
-        <v>300</v>
-      </c>
-      <c r="G50" t="s">
-        <v>67</v>
-      </c>
-      <c r="H50" t="s">
-        <v>68</v>
-      </c>
-      <c r="I50" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50">
+      <c r="K50" t="s">
+        <v>40</v>
+      </c>
+      <c r="L50" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>355</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" t="s">
+        <v>356</v>
+      </c>
+      <c r="F51" t="s">
+        <v>357</v>
+      </c>
+      <c r="G51" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51">
         <v>1</v>
       </c>
-      <c r="K50" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>301</v>
-      </c>
-      <c r="B51" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" t="s">
-        <v>302</v>
-      </c>
-      <c r="D51" t="s">
-        <v>303</v>
-      </c>
-      <c r="E51" t="s">
-        <v>304</v>
-      </c>
-      <c r="F51" t="s">
-        <v>305</v>
-      </c>
-      <c r="G51" t="s">
-        <v>67</v>
-      </c>
-      <c r="H51" t="s">
-        <v>68</v>
-      </c>
-      <c r="I51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J51">
+      <c r="K51" t="s">
+        <v>40</v>
+      </c>
+      <c r="L51" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>359</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>360</v>
+      </c>
+      <c r="D52" t="s">
+        <v>361</v>
+      </c>
+      <c r="E52" t="s">
+        <v>362</v>
+      </c>
+      <c r="F52" t="s">
+        <v>363</v>
+      </c>
+      <c r="G52" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" t="s">
+        <v>76</v>
+      </c>
+      <c r="I52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52">
         <v>4</v>
       </c>
-      <c r="K51" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>307</v>
-      </c>
-      <c r="B52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" t="s">
-        <v>308</v>
-      </c>
-      <c r="D52" t="s">
-        <v>309</v>
-      </c>
-      <c r="E52" t="s">
-        <v>310</v>
-      </c>
-      <c r="F52" t="s">
-        <v>311</v>
-      </c>
-      <c r="G52" t="s">
-        <v>43</v>
-      </c>
-      <c r="H52" t="s">
-        <v>44</v>
-      </c>
-      <c r="I52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J52">
+      <c r="K52" t="s">
+        <v>364</v>
+      </c>
+      <c r="L52" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>366</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>367</v>
+      </c>
+      <c r="D53" t="s">
+        <v>368</v>
+      </c>
+      <c r="E53" t="s">
+        <v>369</v>
+      </c>
+      <c r="F53" t="s">
+        <v>370</v>
+      </c>
+      <c r="G53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H53" t="s">
+        <v>48</v>
+      </c>
+      <c r="I53" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53">
         <v>2</v>
       </c>
-      <c r="K52" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>313</v>
-      </c>
-      <c r="B53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" t="s">
-        <v>314</v>
-      </c>
-      <c r="D53" t="s">
-        <v>315</v>
-      </c>
-      <c r="E53" t="s">
-        <v>316</v>
-      </c>
-      <c r="F53" t="s">
-        <v>317</v>
-      </c>
-      <c r="G53" t="s">
-        <v>108</v>
-      </c>
-      <c r="H53" t="s">
-        <v>109</v>
-      </c>
-      <c r="I53" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53">
-        <v>5</v>
-      </c>
       <c r="K53" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+      <c r="L53" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>374</v>
       </c>
       <c r="D54" t="s">
-        <v>320</v>
+        <v>375</v>
       </c>
       <c r="E54" t="s">
-        <v>321</v>
+        <v>376</v>
       </c>
       <c r="F54" t="s">
-        <v>322</v>
+        <v>377</v>
       </c>
       <c r="G54" t="s">
+        <v>122</v>
+      </c>
+      <c r="H54" t="s">
         <v>123</v>
       </c>
-      <c r="H54" t="s">
-        <v>124</v>
-      </c>
       <c r="I54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J54">
         <v>5</v>
       </c>
       <c r="K54" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+      <c r="L54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="D55" t="s">
-        <v>97</v>
+        <v>381</v>
       </c>
       <c r="E55" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="F55" t="s">
-        <v>327</v>
+        <v>383</v>
       </c>
       <c r="G55" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="H55" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="L55" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>329</v>
+        <v>385</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="D56" t="s">
-        <v>97</v>
+        <v>386</v>
       </c>
       <c r="E56" t="s">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="F56" t="s">
-        <v>331</v>
+        <v>388</v>
       </c>
       <c r="G56" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="H56" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="I56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J56">
         <v>5</v>
       </c>
       <c r="K56" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="L56" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>333</v>
+        <v>58</v>
       </c>
       <c r="D57" t="s">
-        <v>334</v>
+        <v>59</v>
       </c>
       <c r="E57" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
       <c r="F57" t="s">
-        <v>336</v>
+        <v>393</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J57">
         <v>5</v>
       </c>
       <c r="K57" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+      <c r="L57" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>338</v>
+        <v>396</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>339</v>
+        <v>397</v>
       </c>
       <c r="D58" t="s">
-        <v>340</v>
+        <v>110</v>
       </c>
       <c r="E58" t="s">
-        <v>341</v>
+        <v>398</v>
       </c>
       <c r="F58" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="G58" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H58" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K58" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="L58" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>344</v>
+        <v>402</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>345</v>
+        <v>127</v>
       </c>
       <c r="D59" t="s">
-        <v>346</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="F59" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="G59" t="s">
-        <v>349</v>
+        <v>55</v>
       </c>
       <c r="H59" t="s">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="I59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J59">
         <v>5</v>
       </c>
       <c r="K59" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="L59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="D60" t="s">
-        <v>53</v>
+        <v>407</v>
       </c>
       <c r="E60" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="F60" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J60">
         <v>5</v>
       </c>
       <c r="K60" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+      <c r="L60" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>357</v>
+        <v>412</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="D61" t="s">
-        <v>78</v>
+        <v>414</v>
       </c>
       <c r="E61" t="s">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="F61" t="s">
-        <v>359</v>
+        <v>416</v>
       </c>
       <c r="G61" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H61" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J61">
+        <v>5</v>
+      </c>
+      <c r="K61" t="s">
+        <v>417</v>
+      </c>
+      <c r="L61" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>419</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>420</v>
+      </c>
+      <c r="D62" t="s">
+        <v>421</v>
+      </c>
+      <c r="E62" t="s">
+        <v>422</v>
+      </c>
+      <c r="F62" t="s">
+        <v>423</v>
+      </c>
+      <c r="G62" t="s">
+        <v>424</v>
+      </c>
+      <c r="H62" t="s">
+        <v>425</v>
+      </c>
+      <c r="I62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+      <c r="K62" t="s">
+        <v>426</v>
+      </c>
+      <c r="L62" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>428</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
+        <v>429</v>
+      </c>
+      <c r="D63" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" t="s">
+        <v>430</v>
+      </c>
+      <c r="F63" t="s">
+        <v>431</v>
+      </c>
+      <c r="G63" t="s">
+        <v>47</v>
+      </c>
+      <c r="H63" t="s">
+        <v>48</v>
+      </c>
+      <c r="I63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63">
+        <v>5</v>
+      </c>
+      <c r="K63" t="s">
+        <v>432</v>
+      </c>
+      <c r="L63" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>434</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" t="s">
+        <v>435</v>
+      </c>
+      <c r="F64" t="s">
+        <v>436</v>
+      </c>
+      <c r="G64" t="s">
+        <v>55</v>
+      </c>
+      <c r="H64" t="s">
+        <v>40</v>
+      </c>
+      <c r="I64" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64">
         <v>1</v>
       </c>
-      <c r="K61" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>360</v>
-      </c>
-      <c r="B62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" t="s">
-        <v>361</v>
-      </c>
-      <c r="D62" t="s">
-        <v>362</v>
-      </c>
-      <c r="E62" t="s">
-        <v>363</v>
-      </c>
-      <c r="F62" t="s">
-        <v>364</v>
-      </c>
-      <c r="G62" t="s">
-        <v>73</v>
-      </c>
-      <c r="H62" t="s">
-        <v>74</v>
-      </c>
-      <c r="I62" t="s">
-        <v>19</v>
-      </c>
-      <c r="J62">
+      <c r="K64" t="s">
+        <v>40</v>
+      </c>
+      <c r="L64" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>438</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" t="s">
+        <v>439</v>
+      </c>
+      <c r="D65" t="s">
+        <v>440</v>
+      </c>
+      <c r="E65" t="s">
+        <v>441</v>
+      </c>
+      <c r="F65" t="s">
+        <v>442</v>
+      </c>
+      <c r="G65" t="s">
+        <v>82</v>
+      </c>
+      <c r="H65" t="s">
+        <v>83</v>
+      </c>
+      <c r="I65" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65">
         <v>1</v>
       </c>
-      <c r="K62" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>365</v>
-      </c>
-      <c r="B63" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" t="s">
-        <v>366</v>
-      </c>
-      <c r="D63" t="s">
-        <v>64</v>
-      </c>
-      <c r="E63" t="s">
-        <v>367</v>
-      </c>
-      <c r="F63" t="s">
-        <v>368</v>
-      </c>
-      <c r="G63" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" t="s">
-        <v>27</v>
-      </c>
-      <c r="I63" t="s">
-        <v>61</v>
-      </c>
-      <c r="J63">
+      <c r="K65" t="s">
+        <v>40</v>
+      </c>
+      <c r="L65" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>444</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" t="s">
+        <v>445</v>
+      </c>
+      <c r="D66" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" t="s">
+        <v>446</v>
+      </c>
+      <c r="F66" t="s">
+        <v>447</v>
+      </c>
+      <c r="G66" t="s">
+        <v>28</v>
+      </c>
+      <c r="H66" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" t="s">
+        <v>68</v>
+      </c>
+      <c r="J66">
         <v>3</v>
       </c>
-      <c r="K63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>369</v>
-      </c>
-      <c r="B64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" t="s">
-        <v>64</v>
-      </c>
-      <c r="E64" t="s">
-        <v>370</v>
-      </c>
-      <c r="F64" t="s">
-        <v>371</v>
-      </c>
-      <c r="G64" t="s">
-        <v>50</v>
-      </c>
-      <c r="H64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I64" t="s">
-        <v>19</v>
-      </c>
-      <c r="J64">
+      <c r="K66" t="s">
+        <v>40</v>
+      </c>
+      <c r="L66" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>449</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" t="s">
+        <v>450</v>
+      </c>
+      <c r="F67" t="s">
+        <v>451</v>
+      </c>
+      <c r="G67" t="s">
+        <v>55</v>
+      </c>
+      <c r="H67" t="s">
+        <v>40</v>
+      </c>
+      <c r="I67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67">
         <v>3</v>
       </c>
-      <c r="K64" t="s">
-        <v>37</v>
+      <c r="K67" t="s">
+        <v>40</v>
+      </c>
+      <c r="L67" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E21" r:id="rId1" xr:uid="{8BE2BC82-2A9F-4D66-817D-BB2DBA69B7C9}"/>
+    <hyperlink ref="E20" r:id="rId2" xr:uid="{8A319086-A4F2-4109-B1BC-96591D324654}"/>
+    <hyperlink ref="L21" r:id="rId3" xr:uid="{68FE8BAA-3555-4457-90C6-C659EF9564F4}"/>
+    <hyperlink ref="L2" r:id="rId4" xr:uid="{4D66C27B-8371-4E76-B9F4-96084D6E8E66}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
